--- a/Images/Presidents.xlsx
+++ b/Images/Presidents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Presidency</t>
   </si>
@@ -57,7 +57,7 @@
     <t>April 30, 1789 – March 4, 1797</t>
   </si>
   <si>
-    <t>George Washington</t>
+    <t>George Washington (1732–1799)</t>
   </si>
   <si>
     <t>Unaffiliated</t>
@@ -72,7 +72,7 @@
     <t>March 4, 1797 – March 4, 1801</t>
   </si>
   <si>
-    <t>John Adams</t>
+    <t>John Adams (1735–1826)</t>
   </si>
   <si>
     <t>Federalist</t>
@@ -84,6 +84,9 @@
     <t>March 4, 1801 – March 4, 1809</t>
   </si>
   <si>
+    <t>Thomas Jefferson (1743–1826)</t>
+  </si>
+  <si>
     <t>Democratic-Republican</t>
   </si>
   <si>
@@ -96,7 +99,7 @@
     <t>March 4, 1809 – March 4, 1817</t>
   </si>
   <si>
-    <t>James Madison</t>
+    <t>James Madison (1751–1836)</t>
   </si>
   <si>
     <t>1808, 1812</t>
@@ -108,7 +111,7 @@
     <t>March 4, 1817 – March 4, 1825</t>
   </si>
   <si>
-    <t>James Monroe</t>
+    <t>James Monroe (1758–1831)</t>
   </si>
   <si>
     <t>1816, 1820</t>
@@ -120,7 +123,7 @@
     <t>March 4, 1825 – March 4, 1829</t>
   </si>
   <si>
-    <t>John Quincy Adams</t>
+    <t>John Quincy Adams (1767–1848)</t>
   </si>
   <si>
     <t xml:space="preserve">1824,  </t>
@@ -132,7 +135,7 @@
     <t>March 4, 1829 – March 4, 1837</t>
   </si>
   <si>
-    <t>Andrew Jackson</t>
+    <t>Andrew Jackson (1767–1845)</t>
   </si>
   <si>
     <t>Democratic</t>
@@ -147,7 +150,7 @@
     <t>March 4, 1837 – March 4, 1841</t>
   </si>
   <si>
-    <t>Martin Van Buren</t>
+    <t>Martin Van Buren (1782–1862)</t>
   </si>
   <si>
     <t>Richard Mentor Johnson</t>
@@ -156,7 +159,7 @@
     <t>March 4, 1841 – April 4, 1841</t>
   </si>
   <si>
-    <t>William Henry Harrison</t>
+    <t>William Henry Harrison (1773–1841)</t>
   </si>
   <si>
     <t>Whig</t>
@@ -168,6 +171,9 @@
     <t>April 4, 1841 – March 4, 1845</t>
   </si>
   <si>
+    <t>John Tyler (1790–1862)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -177,7 +183,7 @@
     <t>March 4, 1845 – March 4, 1849</t>
   </si>
   <si>
-    <t>James K. Polk</t>
+    <t>James K. Polk (1795–1849)</t>
   </si>
   <si>
     <t>George M. Dallas</t>
@@ -186,7 +192,7 @@
     <t>March 4, 1849 – July 9, 1850</t>
   </si>
   <si>
-    <t>Zachary Taylor</t>
+    <t>Zachary Taylor (1784–1850)</t>
   </si>
   <si>
     <t>Millard Fillmore</t>
@@ -195,13 +201,16 @@
     <t>July 9, 1850 – March 4, 1853</t>
   </si>
   <si>
+    <t>Millard Fillmore (1800–1874)</t>
+  </si>
+  <si>
     <t>Vacant throughout presidency</t>
   </si>
   <si>
     <t>March 4, 1853 – March 4, 1857</t>
   </si>
   <si>
-    <t>Franklin Pierce</t>
+    <t>Franklin Pierce (1804–1869)</t>
   </si>
   <si>
     <t>William R. King, Vacant after Apr. 18, 1853</t>
@@ -210,7 +219,7 @@
     <t>March 4, 1857 – March 4, 1861</t>
   </si>
   <si>
-    <t>James Buchanan</t>
+    <t>James Buchanan (1791–1868)</t>
   </si>
   <si>
     <t>John C. Breckinridge</t>
@@ -219,7 +228,7 @@
     <t>March 4, 1861 – April 15, 1865</t>
   </si>
   <si>
-    <t>Abraham Lincoln</t>
+    <t>Abraham Lincoln (1809–1865)</t>
   </si>
   <si>
     <t>Republican</t>
@@ -234,7 +243,7 @@
     <t>April 15, 1865 – March 4, 1869</t>
   </si>
   <si>
-    <t>Andrew Johnson</t>
+    <t>Andrew Johnson (1808–1875)</t>
   </si>
   <si>
     <t>National Union</t>
@@ -243,7 +252,7 @@
     <t>March 4, 1869 – March 4, 1877</t>
   </si>
   <si>
-    <t>Ulysses S. Grant</t>
+    <t>Ulysses S. Grant (1822–1885)</t>
   </si>
   <si>
     <t>1868, 1872</t>
@@ -255,7 +264,7 @@
     <t>March 4, 1877 – March 4, 1881</t>
   </si>
   <si>
-    <t>Rutherford B. Hayes</t>
+    <t>Rutherford B. Hayes (1822–1893)</t>
   </si>
   <si>
     <t>William A. Wheeler</t>
@@ -264,7 +273,7 @@
     <t>March 4, 1881 – September 19, 1881</t>
   </si>
   <si>
-    <t>James A. Garfield</t>
+    <t>James A. Garfield (1831–1881)</t>
   </si>
   <si>
     <t>Chester A. Arthur</t>
@@ -273,10 +282,13 @@
     <t>September 19, 1881 – March 4, 1885</t>
   </si>
   <si>
+    <t>Chester A. Arthur (1829–1886)</t>
+  </si>
+  <si>
     <t>March 4, 1885 – March 4, 1889</t>
   </si>
   <si>
-    <t>Grover Cleveland</t>
+    <t>Grover Cleveland (1837–1908)</t>
   </si>
   <si>
     <t>1884, 1892</t>
@@ -288,7 +300,7 @@
     <t>March 4, 1889 – March 4, 1893</t>
   </si>
   <si>
-    <t>Benjamin Harrison</t>
+    <t>Benjamin Harrison (1833–1901)</t>
   </si>
   <si>
     <t>Levi P. Morton</t>
@@ -297,7 +309,7 @@
     <t>March 4, 1897 – September 14, 1901</t>
   </si>
   <si>
-    <t>William McKinley</t>
+    <t>William McKinley (1843–1901)</t>
   </si>
   <si>
     <t>1896, 1900</t>
@@ -309,7 +321,7 @@
     <t>September 14, 1901 – March 4, 1909</t>
   </si>
   <si>
-    <t>Theodore Roosevelt</t>
+    <t>Theodore Roosevelt (1858–1919)</t>
   </si>
   <si>
     <t>Vacant through Mar. 4, 1905, Charles W. Fairbanks</t>
@@ -318,7 +330,7 @@
     <t>March 4, 1909 – March 4, 1913</t>
   </si>
   <si>
-    <t>William Howard Taft</t>
+    <t>William Howard Taft (1857–1930)</t>
   </si>
   <si>
     <t>James S. Sherman, Vacant after Oct. 30, 1912</t>
@@ -327,7 +339,7 @@
     <t>March 4, 1913 – March 4, 1921</t>
   </si>
   <si>
-    <t>Woodrow Wilson</t>
+    <t>Woodrow Wilson (1856–1924)</t>
   </si>
   <si>
     <t>1912, 1916</t>
@@ -339,7 +351,7 @@
     <t>March 4, 1921 – August 2, 1923</t>
   </si>
   <si>
-    <t>Warren G. Harding</t>
+    <t>Warren G. Harding (1865–1923)</t>
   </si>
   <si>
     <t>Calvin Coolidge</t>
@@ -348,13 +360,16 @@
     <t>August 2, 1923 – March 4, 1929</t>
   </si>
   <si>
+    <t>Calvin Coolidge (1872–1933)</t>
+  </si>
+  <si>
     <t>Vacant through Mar. 4, 1925, Charles G. Dawes</t>
   </si>
   <si>
     <t>March 4, 1929 – March 4, 1933</t>
   </si>
   <si>
-    <t>Herbert Hoover</t>
+    <t>Herbert Hoover (1874–1964)</t>
   </si>
   <si>
     <t>Charles Curtis</t>
@@ -363,7 +378,7 @@
     <t>March 4, 1933 – April 12, 1945</t>
   </si>
   <si>
-    <t>Franklin D. Roosevelt</t>
+    <t>Franklin D. Roosevelt (1882–1945)</t>
   </si>
   <si>
     <t>1932, 1936, 1940, 1944</t>
@@ -375,7 +390,7 @@
     <t>April 12, 1945 – January 20, 1953</t>
   </si>
   <si>
-    <t>Harry S. Truman</t>
+    <t>Harry S. Truman (1884–1972)</t>
   </si>
   <si>
     <t>Vacant through Jan. 20, 1949, Alben W. Barkley</t>
@@ -384,7 +399,7 @@
     <t>January 20, 1953 – January 20, 1961</t>
   </si>
   <si>
-    <t>Dwight D. Eisenhower</t>
+    <t>Dwight D. Eisenhower (1890–1969)</t>
   </si>
   <si>
     <t>1952, 1956</t>
@@ -396,7 +411,7 @@
     <t>January 20, 1961 – November 22, 1963</t>
   </si>
   <si>
-    <t>John F. Kennedy</t>
+    <t>John F. Kennedy (1917–1963)</t>
   </si>
   <si>
     <t>Lyndon B. Johnson</t>
@@ -405,13 +420,16 @@
     <t>November 22, 1963 – January 20, 1969</t>
   </si>
   <si>
+    <t>Lyndon B. Johnson (1908–1973)</t>
+  </si>
+  <si>
     <t>Vacant through Jan. 20, 1965, Hubert Humphrey</t>
   </si>
   <si>
     <t>January 20, 1969 – August 9, 1974</t>
   </si>
   <si>
-    <t>Richard Nixon</t>
+    <t>Richard Nixon (1913–1994)</t>
   </si>
   <si>
     <t>1968, 1972</t>
@@ -423,7 +441,7 @@
     <t>August 9, 1974 – January 20, 1977</t>
   </si>
   <si>
-    <t>Gerald Ford</t>
+    <t>Gerald Ford (1913–2006)</t>
   </si>
   <si>
     <t>Vacant through Dec. 19, 1974, Nelson Rockefeller</t>
@@ -432,7 +450,7 @@
     <t>January 20, 1977 – January 20, 1981</t>
   </si>
   <si>
-    <t>Jimmy Carter</t>
+    <t>Jimmy Carter (b. 1924)</t>
   </si>
   <si>
     <t>Walter Mondale</t>
@@ -441,7 +459,7 @@
     <t>January 20, 1981 – January 20, 1989</t>
   </si>
   <si>
-    <t>Ronald Reagan</t>
+    <t>Ronald Reagan (1911–2004)</t>
   </si>
   <si>
     <t>1980, 1984</t>
@@ -453,7 +471,7 @@
     <t>January 20, 1989 – January 20, 1993</t>
   </si>
   <si>
-    <t>George H. W. Bush</t>
+    <t>George H. W. Bush (1924–2018)</t>
   </si>
   <si>
     <t>Dan Quayle</t>
@@ -462,7 +480,7 @@
     <t>January 20, 1993 – January 20, 2001</t>
   </si>
   <si>
-    <t>Bill Clinton</t>
+    <t>Bill Clinton (b. 1946)</t>
   </si>
   <si>
     <t>1992, 1996</t>
@@ -474,7 +492,7 @@
     <t>January 20, 2001 – January 20, 2009</t>
   </si>
   <si>
-    <t>George W. Bush</t>
+    <t>George W. Bush (b. 1946)</t>
   </si>
   <si>
     <t>2000, 2004</t>
@@ -486,7 +504,7 @@
     <t>January 20, 2009 – January 20, 2017</t>
   </si>
   <si>
-    <t>Barack Obama</t>
+    <t>Barack Obama (b. 1961)</t>
   </si>
   <si>
     <t>2008, 2012</t>
@@ -498,7 +516,7 @@
     <t>January 20, 2017 – January 20, 2021</t>
   </si>
   <si>
-    <t>Donald Trump</t>
+    <t>Donald Trump (b. 1946)</t>
   </si>
   <si>
     <t>Mike Pence</t>
@@ -507,7 +525,7 @@
     <t>January 20, 2021 – Incumbent</t>
   </si>
   <si>
-    <t>Joe Biden</t>
+    <t>Joe Biden (b. 1942)</t>
   </si>
   <si>
     <t>Kamala Harris</t>
@@ -1038,16 +1056,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1055,19 +1073,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1075,19 +1093,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1095,19 +1113,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1115,19 +1133,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1135,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>1836</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1155,19 +1173,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2">
         <v>1840</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1175,19 +1193,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1195,19 +1213,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
         <v>1844</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1215,19 +1233,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>1848</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1235,17 +1253,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1253,19 +1271,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2">
         <v>1852</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1273,19 +1291,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>1856</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1293,19 +1311,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1313,19 +1331,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1333,19 +1351,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1353,19 +1371,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2">
         <v>1876</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1373,19 +1391,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2">
         <v>1880</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1393,17 +1411,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1411,19 +1429,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1431,19 +1449,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2">
         <v>1888</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1451,19 +1469,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1471,19 +1489,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2">
         <v>1904</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1491,19 +1509,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2">
         <v>1908</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1511,19 +1529,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1531,19 +1549,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2">
         <v>1920</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1551,19 +1569,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2">
         <v>1924</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1571,19 +1589,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2">
         <v>1928</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1591,19 +1609,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1611,19 +1629,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2">
         <v>1948</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1631,19 +1649,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1651,19 +1669,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2">
         <v>1960</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1671,19 +1689,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2">
         <v>1964</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1691,19 +1709,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1711,17 +1729,17 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1729,19 +1747,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2">
         <v>1976</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1749,19 +1767,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1769,19 +1787,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2">
         <v>1988</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1789,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1809,19 +1827,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1829,19 +1847,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1849,19 +1867,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1869,19 +1887,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2">
         <v>2020</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Images/Presidents.xlsx
+++ b/Images/Presidents.xlsx
@@ -36,15 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
-    <t>Presidency</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>President</t>
   </si>
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Party</t>
   </si>
   <si>
@@ -54,12 +54,12 @@
     <t>Vice President</t>
   </si>
   <si>
+    <t>George Washington (1732–1799)</t>
+  </si>
+  <si>
     <t>April 30, 1789 – March 4, 1797</t>
   </si>
   <si>
-    <t>George Washington (1732–1799)</t>
-  </si>
-  <si>
     <t>Unaffiliated</t>
   </si>
   <si>
@@ -69,24 +69,24 @@
     <t xml:space="preserve">John Adams,  </t>
   </si>
   <si>
+    <t>John Adams (1735–1826)</t>
+  </si>
+  <si>
     <t>March 4, 1797 – March 4, 1801</t>
   </si>
   <si>
-    <t>John Adams (1735–1826)</t>
-  </si>
-  <si>
     <t>Federalist</t>
   </si>
   <si>
     <t>Thomas Jefferson</t>
   </si>
   <si>
+    <t>Thomas Jefferson (1743–1826)</t>
+  </si>
+  <si>
     <t>March 4, 1801 – March 4, 1809</t>
   </si>
   <si>
-    <t>Thomas Jefferson (1743–1826)</t>
-  </si>
-  <si>
     <t>Democratic-Republican</t>
   </si>
   <si>
@@ -96,48 +96,48 @@
     <t>Aaron Burr, George Clinton</t>
   </si>
   <si>
+    <t>James Madison (1751–1836)</t>
+  </si>
+  <si>
     <t>March 4, 1809 – March 4, 1817</t>
   </si>
   <si>
-    <t>James Madison (1751–1836)</t>
-  </si>
-  <si>
     <t>1808, 1812</t>
   </si>
   <si>
     <t xml:space="preserve"> , Vacant after Apr. 20, 1812, Elbridge Gerry, Vacant after Nov. 23, 1814</t>
   </si>
   <si>
+    <t>James Monroe (1758–1831)</t>
+  </si>
+  <si>
     <t>March 4, 1817 – March 4, 1825</t>
   </si>
   <si>
-    <t>James Monroe (1758–1831)</t>
-  </si>
-  <si>
     <t>1816, 1820</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel D. Tompkins,  </t>
   </si>
   <si>
+    <t>John Quincy Adams (1767–1848)</t>
+  </si>
+  <si>
     <t>March 4, 1825 – March 4, 1829</t>
   </si>
   <si>
-    <t>John Quincy Adams (1767–1848)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1824,  </t>
   </si>
   <si>
     <t xml:space="preserve">John C. Calhoun,  </t>
   </si>
   <si>
+    <t>Andrew Jackson (1767–1845)</t>
+  </si>
+  <si>
     <t>March 4, 1829 – March 4, 1837</t>
   </si>
   <si>
-    <t>Andrew Jackson (1767–1845)</t>
-  </si>
-  <si>
     <t>Democratic</t>
   </si>
   <si>
@@ -147,90 +147,90 @@
     <t xml:space="preserve"> , Vacant after Dec. 28, 1832, Martin Van Buren</t>
   </si>
   <si>
+    <t>Martin Van Buren (1782–1862)</t>
+  </si>
+  <si>
     <t>March 4, 1837 – March 4, 1841</t>
   </si>
   <si>
-    <t>Martin Van Buren (1782–1862)</t>
-  </si>
-  <si>
     <t>Richard Mentor Johnson</t>
   </si>
   <si>
+    <t>William Henry Harrison (1773–1841)</t>
+  </si>
+  <si>
     <t>March 4, 1841 – April 4, 1841</t>
   </si>
   <si>
-    <t>William Henry Harrison (1773–1841)</t>
-  </si>
-  <si>
     <t>Whig</t>
   </si>
   <si>
     <t>John Tyler</t>
   </si>
   <si>
+    <t>John Tyler (1790–1862)</t>
+  </si>
+  <si>
     <t>April 4, 1841 – March 4, 1845</t>
   </si>
   <si>
-    <t>John Tyler (1790–1862)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Vacant throughout presidency,  </t>
   </si>
   <si>
+    <t>James K. Polk (1795–1849)</t>
+  </si>
+  <si>
     <t>March 4, 1845 – March 4, 1849</t>
   </si>
   <si>
-    <t>James K. Polk (1795–1849)</t>
-  </si>
-  <si>
     <t>George M. Dallas</t>
   </si>
   <si>
+    <t>Zachary Taylor (1784–1850)</t>
+  </si>
+  <si>
     <t>March 4, 1849 – July 9, 1850</t>
   </si>
   <si>
-    <t>Zachary Taylor (1784–1850)</t>
-  </si>
-  <si>
     <t>Millard Fillmore</t>
   </si>
   <si>
+    <t>Millard Fillmore (1800–1874)</t>
+  </si>
+  <si>
     <t>July 9, 1850 – March 4, 1853</t>
   </si>
   <si>
-    <t>Millard Fillmore (1800–1874)</t>
-  </si>
-  <si>
     <t>Vacant throughout presidency</t>
   </si>
   <si>
+    <t>Franklin Pierce (1804–1869)</t>
+  </si>
+  <si>
     <t>March 4, 1853 – March 4, 1857</t>
   </si>
   <si>
-    <t>Franklin Pierce (1804–1869)</t>
-  </si>
-  <si>
     <t>William R. King, Vacant after Apr. 18, 1853</t>
   </si>
   <si>
+    <t>James Buchanan (1791–1868)</t>
+  </si>
+  <si>
     <t>March 4, 1857 – March 4, 1861</t>
   </si>
   <si>
-    <t>James Buchanan (1791–1868)</t>
-  </si>
-  <si>
     <t>John C. Breckinridge</t>
   </si>
   <si>
+    <t>Abraham Lincoln (1809–1865)</t>
+  </si>
+  <si>
     <t>March 4, 1861 – April 15, 1865</t>
   </si>
   <si>
-    <t>Abraham Lincoln (1809–1865)</t>
-  </si>
-  <si>
     <t>Republican</t>
   </si>
   <si>
@@ -240,292 +240,292 @@
     <t>Hannibal Hamlin, Andrew Johnson</t>
   </si>
   <si>
+    <t>Andrew Johnson (1808–1875)</t>
+  </si>
+  <si>
     <t>April 15, 1865 – March 4, 1869</t>
   </si>
   <si>
-    <t>Andrew Johnson (1808–1875)</t>
-  </si>
-  <si>
     <t>National Union</t>
   </si>
   <si>
+    <t>Ulysses S. Grant (1822–1885)</t>
+  </si>
+  <si>
     <t>March 4, 1869 – March 4, 1877</t>
   </si>
   <si>
-    <t>Ulysses S. Grant (1822–1885)</t>
-  </si>
-  <si>
     <t>1868, 1872</t>
   </si>
   <si>
     <t>Schuyler Colfax, Henry Wilson, Vacant after Nov. 22, 1875</t>
   </si>
   <si>
+    <t>Rutherford B. Hayes (1822–1893)</t>
+  </si>
+  <si>
     <t>March 4, 1877 – March 4, 1881</t>
   </si>
   <si>
-    <t>Rutherford B. Hayes (1822–1893)</t>
-  </si>
-  <si>
     <t>William A. Wheeler</t>
   </si>
   <si>
+    <t>James A. Garfield (1831–1881)</t>
+  </si>
+  <si>
     <t>March 4, 1881 – September 19, 1881</t>
   </si>
   <si>
-    <t>James A. Garfield (1831–1881)</t>
-  </si>
-  <si>
     <t>Chester A. Arthur</t>
   </si>
   <si>
+    <t>Chester A. Arthur (1829–1886)</t>
+  </si>
+  <si>
     <t>September 19, 1881 – March 4, 1885</t>
   </si>
   <si>
-    <t>Chester A. Arthur (1829–1886)</t>
+    <t>Grover Cleveland (1837–1908)</t>
   </si>
   <si>
     <t>March 4, 1885 – March 4, 1889</t>
   </si>
   <si>
-    <t>Grover Cleveland (1837–1908)</t>
-  </si>
-  <si>
     <t>1884, 1892</t>
   </si>
   <si>
     <t>Thomas A. Hendricks, Vacant after Nov. 25, 1885, Adlai Stevenson I</t>
   </si>
   <si>
+    <t>Benjamin Harrison (1833–1901)</t>
+  </si>
+  <si>
     <t>March 4, 1889 – March 4, 1893</t>
   </si>
   <si>
-    <t>Benjamin Harrison (1833–1901)</t>
-  </si>
-  <si>
     <t>Levi P. Morton</t>
   </si>
   <si>
+    <t>William McKinley (1843–1901)</t>
+  </si>
+  <si>
     <t>March 4, 1897 – September 14, 1901</t>
   </si>
   <si>
-    <t>William McKinley (1843–1901)</t>
-  </si>
-  <si>
     <t>1896, 1900</t>
   </si>
   <si>
     <t>Garret Hobart, Vacant after Nov. 21, 1899, Theodore Roosevelt</t>
   </si>
   <si>
+    <t>Theodore Roosevelt (1858–1919)</t>
+  </si>
+  <si>
     <t>September 14, 1901 – March 4, 1909</t>
   </si>
   <si>
-    <t>Theodore Roosevelt (1858–1919)</t>
-  </si>
-  <si>
     <t>Vacant through Mar. 4, 1905, Charles W. Fairbanks</t>
   </si>
   <si>
+    <t>William Howard Taft (1857–1930)</t>
+  </si>
+  <si>
     <t>March 4, 1909 – March 4, 1913</t>
   </si>
   <si>
-    <t>William Howard Taft (1857–1930)</t>
-  </si>
-  <si>
     <t>James S. Sherman, Vacant after Oct. 30, 1912</t>
   </si>
   <si>
+    <t>Woodrow Wilson (1856–1924)</t>
+  </si>
+  <si>
     <t>March 4, 1913 – March 4, 1921</t>
   </si>
   <si>
-    <t>Woodrow Wilson (1856–1924)</t>
-  </si>
-  <si>
     <t>1912, 1916</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas R. Marshall,  </t>
   </si>
   <si>
+    <t>Warren G. Harding (1865–1923)</t>
+  </si>
+  <si>
     <t>March 4, 1921 – August 2, 1923</t>
   </si>
   <si>
-    <t>Warren G. Harding (1865–1923)</t>
-  </si>
-  <si>
     <t>Calvin Coolidge</t>
   </si>
   <si>
+    <t>Calvin Coolidge (1872–1933)</t>
+  </si>
+  <si>
     <t>August 2, 1923 – March 4, 1929</t>
   </si>
   <si>
-    <t>Calvin Coolidge (1872–1933)</t>
-  </si>
-  <si>
     <t>Vacant through Mar. 4, 1925, Charles G. Dawes</t>
   </si>
   <si>
+    <t>Herbert Hoover (1874–1964)</t>
+  </si>
+  <si>
     <t>March 4, 1929 – March 4, 1933</t>
   </si>
   <si>
-    <t>Herbert Hoover (1874–1964)</t>
-  </si>
-  <si>
     <t>Charles Curtis</t>
   </si>
   <si>
+    <t>Franklin D. Roosevelt (1882–1945)</t>
+  </si>
+  <si>
     <t>March 4, 1933 – April 12, 1945</t>
   </si>
   <si>
-    <t>Franklin D. Roosevelt (1882–1945)</t>
-  </si>
-  <si>
     <t>1932, 1936, 1940, 1944</t>
   </si>
   <si>
     <t>John Nance Garner,  , Henry A. Wallace, Harry S. Truman</t>
   </si>
   <si>
+    <t>Harry S. Truman (1884–1972)</t>
+  </si>
+  <si>
     <t>April 12, 1945 – January 20, 1953</t>
   </si>
   <si>
-    <t>Harry S. Truman (1884–1972)</t>
-  </si>
-  <si>
     <t>Vacant through Jan. 20, 1949, Alben W. Barkley</t>
   </si>
   <si>
+    <t>Dwight D. Eisenhower (1890–1969)</t>
+  </si>
+  <si>
     <t>January 20, 1953 – January 20, 1961</t>
   </si>
   <si>
-    <t>Dwight D. Eisenhower (1890–1969)</t>
-  </si>
-  <si>
     <t>1952, 1956</t>
   </si>
   <si>
     <t xml:space="preserve">Richard Nixon,  </t>
   </si>
   <si>
+    <t>John F. Kennedy (1917–1963)</t>
+  </si>
+  <si>
     <t>January 20, 1961 – November 22, 1963</t>
   </si>
   <si>
-    <t>John F. Kennedy (1917–1963)</t>
-  </si>
-  <si>
     <t>Lyndon B. Johnson</t>
   </si>
   <si>
+    <t>Lyndon B. Johnson (1908–1973)</t>
+  </si>
+  <si>
     <t>November 22, 1963 – January 20, 1969</t>
   </si>
   <si>
-    <t>Lyndon B. Johnson (1908–1973)</t>
-  </si>
-  <si>
     <t>Vacant through Jan. 20, 1965, Hubert Humphrey</t>
   </si>
   <si>
+    <t>Richard Nixon (1913–1994)</t>
+  </si>
+  <si>
     <t>January 20, 1969 – August 9, 1974</t>
   </si>
   <si>
-    <t>Richard Nixon (1913–1994)</t>
-  </si>
-  <si>
     <t>1968, 1972</t>
   </si>
   <si>
     <t>Spiro Agnew,  , Vacant, Oct. 10 – Dec. 6, 1973, Gerald Ford</t>
   </si>
   <si>
+    <t>Gerald Ford (1913–2006)</t>
+  </si>
+  <si>
     <t>August 9, 1974 – January 20, 1977</t>
   </si>
   <si>
-    <t>Gerald Ford (1913–2006)</t>
-  </si>
-  <si>
     <t>Vacant through Dec. 19, 1974, Nelson Rockefeller</t>
   </si>
   <si>
+    <t>Jimmy Carter (b. 1924)</t>
+  </si>
+  <si>
     <t>January 20, 1977 – January 20, 1981</t>
   </si>
   <si>
-    <t>Jimmy Carter (b. 1924)</t>
-  </si>
-  <si>
     <t>Walter Mondale</t>
   </si>
   <si>
+    <t>Ronald Reagan (1911–2004)</t>
+  </si>
+  <si>
     <t>January 20, 1981 – January 20, 1989</t>
   </si>
   <si>
-    <t>Ronald Reagan (1911–2004)</t>
-  </si>
-  <si>
     <t>1980, 1984</t>
   </si>
   <si>
     <t xml:space="preserve">George H. W. Bush,  </t>
   </si>
   <si>
+    <t>George H. W. Bush (1924–2018)</t>
+  </si>
+  <si>
     <t>January 20, 1989 – January 20, 1993</t>
   </si>
   <si>
-    <t>George H. W. Bush (1924–2018)</t>
-  </si>
-  <si>
     <t>Dan Quayle</t>
   </si>
   <si>
+    <t>Bill Clinton (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 1993 – January 20, 2001</t>
   </si>
   <si>
-    <t>Bill Clinton (b. 1946)</t>
-  </si>
-  <si>
     <t>1992, 1996</t>
   </si>
   <si>
     <t xml:space="preserve">Al Gore,  </t>
   </si>
   <si>
+    <t>George W. Bush (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 2001 – January 20, 2009</t>
   </si>
   <si>
-    <t>George W. Bush (b. 1946)</t>
-  </si>
-  <si>
     <t>2000, 2004</t>
   </si>
   <si>
     <t xml:space="preserve">Dick Cheney,  </t>
   </si>
   <si>
+    <t>Barack Obama (b. 1961)</t>
+  </si>
+  <si>
     <t>January 20, 2009 – January 20, 2017</t>
   </si>
   <si>
-    <t>Barack Obama (b. 1961)</t>
-  </si>
-  <si>
     <t>2008, 2012</t>
   </si>
   <si>
     <t xml:space="preserve">Joe Biden,  </t>
   </si>
   <si>
+    <t>Donald Trump (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 2017 – January 20, 2021</t>
   </si>
   <si>
-    <t>Donald Trump (b. 1946)</t>
-  </si>
-  <si>
     <t>Mike Pence</t>
   </si>
   <si>
+    <t>Joe Biden (b. 1942)</t>
+  </si>
+  <si>
     <t>January 20, 2021 – Incumbent</t>
-  </si>
-  <si>
-    <t>Joe Biden (b. 1942)</t>
   </si>
   <si>
     <t>Kamala Harris</t>

--- a/Images/Presidents.xlsx
+++ b/Images/Presidents.xlsx
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+  <si>
+    <t>No.</t>
   </si>
   <si>
     <t>President</t>
@@ -54,7 +54,7 @@
     <t>Vice President</t>
   </si>
   <si>
-    <t>George Washington (1732–1799)</t>
+    <t xml:space="preserve">George Washington (1732–1799) </t>
   </si>
   <si>
     <t>April 30, 1789 – March 4, 1797</t>
@@ -63,13 +63,13 @@
     <t>Unaffiliated</t>
   </si>
   <si>
-    <t>1788–89, 1792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Adams,  </t>
-  </si>
-  <si>
-    <t>John Adams (1735–1826)</t>
+    <t>1788–1789 1792</t>
+  </si>
+  <si>
+    <t>John Adams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Adams (1735–1826) </t>
   </si>
   <si>
     <t>March 4, 1797 – March 4, 1801</t>
@@ -81,7 +81,7 @@
     <t>Thomas Jefferson</t>
   </si>
   <si>
-    <t>Thomas Jefferson (1743–1826)</t>
+    <t xml:space="preserve">Thomas Jefferson (1743–1826) </t>
   </si>
   <si>
     <t>March 4, 1801 – March 4, 1809</t>
@@ -90,49 +90,49 @@
     <t>Democratic-Republican</t>
   </si>
   <si>
-    <t>1800, 1804</t>
-  </si>
-  <si>
-    <t>Aaron Burr, George Clinton</t>
-  </si>
-  <si>
-    <t>James Madison (1751–1836)</t>
+    <t>1800 1804</t>
+  </si>
+  <si>
+    <t>Aaron Burr George Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Madison (1751–1836) </t>
   </si>
   <si>
     <t>March 4, 1809 – March 4, 1817</t>
   </si>
   <si>
-    <t>1808, 1812</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , Vacant after Apr. 20, 1812, Elbridge Gerry, Vacant after Nov. 23, 1814</t>
-  </si>
-  <si>
-    <t>James Monroe (1758–1831)</t>
+    <t>1808 1812</t>
+  </si>
+  <si>
+    <t>George Clinton Vacant after April 20, 1812 Elbridge Gerry Vacant after November 23, 1814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Monroe (1758–1831) </t>
   </si>
   <si>
     <t>March 4, 1817 – March 4, 1825</t>
   </si>
   <si>
-    <t>1816, 1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel D. Tompkins,  </t>
-  </si>
-  <si>
-    <t>John Quincy Adams (1767–1848)</t>
+    <t>1816 1820</t>
+  </si>
+  <si>
+    <t>Daniel D. Tompkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Quincy Adams (1767–1848) </t>
   </si>
   <si>
     <t>March 4, 1825 – March 4, 1829</t>
   </si>
   <si>
-    <t xml:space="preserve">1824,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">John C. Calhoun,  </t>
-  </si>
-  <si>
-    <t>Andrew Jackson (1767–1845)</t>
+    <t>Democratic-Republican National Republican</t>
+  </si>
+  <si>
+    <t>John C. Calhoun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Jackson (1767–1845) </t>
   </si>
   <si>
     <t>March 4, 1829 – March 4, 1837</t>
@@ -141,13 +141,13 @@
     <t>Democratic</t>
   </si>
   <si>
-    <t>1828, 1832</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , Vacant after Dec. 28, 1832, Martin Van Buren</t>
-  </si>
-  <si>
-    <t>Martin Van Buren (1782–1862)</t>
+    <t>1828 1832</t>
+  </si>
+  <si>
+    <t>John C. Calhoun Vacant after December 28, 1832 Martin Van Buren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Van Buren (1782–1862) </t>
   </si>
   <si>
     <t>March 4, 1837 – March 4, 1841</t>
@@ -156,7 +156,7 @@
     <t>Richard Mentor Johnson</t>
   </si>
   <si>
-    <t>William Henry Harrison (1773–1841)</t>
+    <t xml:space="preserve">William Henry Harrison (1773–1841) </t>
   </si>
   <si>
     <t>March 4, 1841 – April 4, 1841</t>
@@ -168,19 +168,22 @@
     <t>John Tyler</t>
   </si>
   <si>
-    <t>John Tyler (1790–1862)</t>
+    <t xml:space="preserve">John Tyler (1790–1862) </t>
   </si>
   <si>
     <t>April 4, 1841 – March 4, 1845</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vacant throughout presidency,  </t>
-  </si>
-  <si>
-    <t>James K. Polk (1795–1849)</t>
+    <t>Whig Unaffiliated</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Vacant throughout presidency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James K. Polk (1795–1849) </t>
   </si>
   <si>
     <t>March 4, 1845 – March 4, 1849</t>
@@ -189,7 +192,7 @@
     <t>George M. Dallas</t>
   </si>
   <si>
-    <t>Zachary Taylor (1784–1850)</t>
+    <t xml:space="preserve">Zachary Taylor (1784–1850) </t>
   </si>
   <si>
     <t>March 4, 1849 – July 9, 1850</t>
@@ -198,25 +201,22 @@
     <t>Millard Fillmore</t>
   </si>
   <si>
-    <t>Millard Fillmore (1800–1874)</t>
+    <t xml:space="preserve">Millard Fillmore (1800–1874) </t>
   </si>
   <si>
     <t>July 9, 1850 – March 4, 1853</t>
   </si>
   <si>
-    <t>Vacant throughout presidency</t>
-  </si>
-  <si>
-    <t>Franklin Pierce (1804–1869)</t>
+    <t xml:space="preserve">Franklin Pierce (1804–1869) </t>
   </si>
   <si>
     <t>March 4, 1853 – March 4, 1857</t>
   </si>
   <si>
-    <t>William R. King, Vacant after Apr. 18, 1853</t>
-  </si>
-  <si>
-    <t>James Buchanan (1791–1868)</t>
+    <t>William R. King Vacant after April 18, 1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Buchanan (1791–1868) </t>
   </si>
   <si>
     <t>March 4, 1857 – March 4, 1861</t>
@@ -225,43 +225,46 @@
     <t>John C. Breckinridge</t>
   </si>
   <si>
-    <t>Abraham Lincoln (1809–1865)</t>
+    <t xml:space="preserve">Abraham Lincoln (1809–1865) </t>
   </si>
   <si>
     <t>March 4, 1861 – April 15, 1865</t>
   </si>
   <si>
+    <t>Republican National Union</t>
+  </si>
+  <si>
+    <t>1860 1864</t>
+  </si>
+  <si>
+    <t>Hannibal Hamlin Andrew Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Johnson (1808–1875) </t>
+  </si>
+  <si>
+    <t>April 15, 1865 – March 4, 1869</t>
+  </si>
+  <si>
+    <t>National Union Democratic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulysses S. Grant (1822–1885) </t>
+  </si>
+  <si>
+    <t>March 4, 1869 – March 4, 1877</t>
+  </si>
+  <si>
     <t>Republican</t>
   </si>
   <si>
-    <t>1860, 1864</t>
-  </si>
-  <si>
-    <t>Hannibal Hamlin, Andrew Johnson</t>
-  </si>
-  <si>
-    <t>Andrew Johnson (1808–1875)</t>
-  </si>
-  <si>
-    <t>April 15, 1865 – March 4, 1869</t>
-  </si>
-  <si>
-    <t>National Union</t>
-  </si>
-  <si>
-    <t>Ulysses S. Grant (1822–1885)</t>
-  </si>
-  <si>
-    <t>March 4, 1869 – March 4, 1877</t>
-  </si>
-  <si>
-    <t>1868, 1872</t>
-  </si>
-  <si>
-    <t>Schuyler Colfax, Henry Wilson, Vacant after Nov. 22, 1875</t>
-  </si>
-  <si>
-    <t>Rutherford B. Hayes (1822–1893)</t>
+    <t>1868 1872</t>
+  </si>
+  <si>
+    <t>Schuyler Colfax Henry Wilson Vacant after November 22, 1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutherford B. Hayes (1822–1893) </t>
   </si>
   <si>
     <t>March 4, 1877 – March 4, 1881</t>
@@ -270,7 +273,7 @@
     <t>William A. Wheeler</t>
   </si>
   <si>
-    <t>James A. Garfield (1831–1881)</t>
+    <t xml:space="preserve">James A. Garfield (1831–1881) </t>
   </si>
   <si>
     <t>March 4, 1881 – September 19, 1881</t>
@@ -279,13 +282,13 @@
     <t>Chester A. Arthur</t>
   </si>
   <si>
-    <t>Chester A. Arthur (1829–1886)</t>
+    <t xml:space="preserve">Chester A. Arthur (1829–1886) </t>
   </si>
   <si>
     <t>September 19, 1881 – March 4, 1885</t>
   </si>
   <si>
-    <t>Grover Cleveland (1837–1908)</t>
+    <t xml:space="preserve">Grover Cleveland (1837–1908) </t>
   </si>
   <si>
     <t>March 4, 1885 – March 4, 1889</t>
@@ -294,10 +297,10 @@
     <t>1884, 1892</t>
   </si>
   <si>
-    <t>Thomas A. Hendricks, Vacant after Nov. 25, 1885, Adlai Stevenson I</t>
-  </si>
-  <si>
-    <t>Benjamin Harrison (1833–1901)</t>
+    <t>Thomas A. Hendricks Vacant after November 25, 1885, Adlai Stevenson I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Harrison (1833–1901) </t>
   </si>
   <si>
     <t>March 4, 1889 – March 4, 1893</t>
@@ -306,49 +309,52 @@
     <t>Levi P. Morton</t>
   </si>
   <si>
-    <t>William McKinley (1843–1901)</t>
+    <t xml:space="preserve">William McKinley (1843–1901) </t>
   </si>
   <si>
     <t>March 4, 1897 – September 14, 1901</t>
   </si>
   <si>
-    <t>1896, 1900</t>
-  </si>
-  <si>
-    <t>Garret Hobart, Vacant after Nov. 21, 1899, Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt (1858–1919)</t>
+    <t>1896 1900</t>
+  </si>
+  <si>
+    <t>Garret Hobart Vacant after November 21, 1899 Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theodore Roosevelt (1858–1919) </t>
   </si>
   <si>
     <t>September 14, 1901 – March 4, 1909</t>
   </si>
   <si>
-    <t>Vacant through Mar. 4, 1905, Charles W. Fairbanks</t>
-  </si>
-  <si>
-    <t>William Howard Taft (1857–1930)</t>
+    <t>– 1904</t>
+  </si>
+  <si>
+    <t>Vacant through March 4, 1905 Charles W. Fairbanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Howard Taft (1857–1930) </t>
   </si>
   <si>
     <t>March 4, 1909 – March 4, 1913</t>
   </si>
   <si>
-    <t>James S. Sherman, Vacant after Oct. 30, 1912</t>
-  </si>
-  <si>
-    <t>Woodrow Wilson (1856–1924)</t>
+    <t>James S. Sherman Vacant after October 30, 1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodrow Wilson (1856–1924) </t>
   </si>
   <si>
     <t>March 4, 1913 – March 4, 1921</t>
   </si>
   <si>
-    <t>1912, 1916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas R. Marshall,  </t>
-  </si>
-  <si>
-    <t>Warren G. Harding (1865–1923)</t>
+    <t>1912 1916</t>
+  </si>
+  <si>
+    <t>Thomas R. Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren G. Harding (1865–1923) </t>
   </si>
   <si>
     <t>March 4, 1921 – August 2, 1923</t>
@@ -357,16 +363,19 @@
     <t>Calvin Coolidge</t>
   </si>
   <si>
-    <t>Calvin Coolidge (1872–1933)</t>
+    <t xml:space="preserve">Calvin Coolidge (1872–1933) </t>
   </si>
   <si>
     <t>August 2, 1923 – March 4, 1929</t>
   </si>
   <si>
-    <t>Vacant through Mar. 4, 1925, Charles G. Dawes</t>
-  </si>
-  <si>
-    <t>Herbert Hoover (1874–1964)</t>
+    <t>– 1924</t>
+  </si>
+  <si>
+    <t>Vacant through March 4, 1925 Charles G. Dawes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert Hoover (1874–1964) </t>
   </si>
   <si>
     <t>March 4, 1929 – March 4, 1933</t>
@@ -375,40 +384,43 @@
     <t>Charles Curtis</t>
   </si>
   <si>
-    <t>Franklin D. Roosevelt (1882–1945)</t>
+    <t xml:space="preserve">Franklin D. Roosevelt (1882–1945) </t>
   </si>
   <si>
     <t>March 4, 1933 – April 12, 1945</t>
   </si>
   <si>
-    <t>1932, 1936, 1940, 1944</t>
-  </si>
-  <si>
-    <t>John Nance Garner,  , Henry A. Wallace, Harry S. Truman</t>
-  </si>
-  <si>
-    <t>Harry S. Truman (1884–1972)</t>
+    <t>1932 1936 1940 1944</t>
+  </si>
+  <si>
+    <t>John Nance Garner Henry A. Wallace Harry S. Truman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry S. Truman (1884–1972) </t>
   </si>
   <si>
     <t>April 12, 1945 – January 20, 1953</t>
   </si>
   <si>
-    <t>Vacant through Jan. 20, 1949, Alben W. Barkley</t>
-  </si>
-  <si>
-    <t>Dwight D. Eisenhower (1890–1969)</t>
+    <t>– 1948</t>
+  </si>
+  <si>
+    <t>Vacant through January 20, 1949 Alben W. Barkley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwight D. Eisenhower (1890–1969) </t>
   </si>
   <si>
     <t>January 20, 1953 – January 20, 1961</t>
   </si>
   <si>
-    <t>1952, 1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Nixon,  </t>
-  </si>
-  <si>
-    <t>John F. Kennedy (1917–1963)</t>
+    <t>1952 1956</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John F. Kennedy (1917–1963) </t>
   </si>
   <si>
     <t>January 20, 1961 – November 22, 1963</t>
@@ -417,37 +429,40 @@
     <t>Lyndon B. Johnson</t>
   </si>
   <si>
-    <t>Lyndon B. Johnson (1908–1973)</t>
+    <t xml:space="preserve">Lyndon B. Johnson (1908–1973) </t>
   </si>
   <si>
     <t>November 22, 1963 – January 20, 1969</t>
   </si>
   <si>
-    <t>Vacant through Jan. 20, 1965, Hubert Humphrey</t>
-  </si>
-  <si>
-    <t>Richard Nixon (1913–1994)</t>
+    <t>– 1964</t>
+  </si>
+  <si>
+    <t>Vacant through January 20, 1965 Hubert Humphrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Nixon (1913–1994) </t>
   </si>
   <si>
     <t>January 20, 1969 – August 9, 1974</t>
   </si>
   <si>
-    <t>1968, 1972</t>
-  </si>
-  <si>
-    <t>Spiro Agnew,  , Vacant, Oct. 10 – Dec. 6, 1973, Gerald Ford</t>
-  </si>
-  <si>
-    <t>Gerald Ford (1913–2006)</t>
+    <t>1968 1972</t>
+  </si>
+  <si>
+    <t>Spiro Agnew Vacant: October 10 – December 6, 1973 Gerald Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerald Ford (1913–2006) </t>
   </si>
   <si>
     <t>August 9, 1974 – January 20, 1977</t>
   </si>
   <si>
-    <t>Vacant through Dec. 19, 1974, Nelson Rockefeller</t>
-  </si>
-  <si>
-    <t>Jimmy Carter (b. 1924)</t>
+    <t>Vacant through December 19, 1974 Nelson Rockefeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Carter (b. 1924) </t>
   </si>
   <si>
     <t>January 20, 1977 – January 20, 1981</t>
@@ -456,19 +471,19 @@
     <t>Walter Mondale</t>
   </si>
   <si>
-    <t>Ronald Reagan (1911–2004)</t>
+    <t xml:space="preserve">Ronald Reagan (1911–2004) </t>
   </si>
   <si>
     <t>January 20, 1981 – January 20, 1989</t>
   </si>
   <si>
-    <t>1980, 1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George H. W. Bush,  </t>
-  </si>
-  <si>
-    <t>George H. W. Bush (1924–2018)</t>
+    <t>1980 1984</t>
+  </si>
+  <si>
+    <t>George H. W. Bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George H. W. Bush (1924–2018) </t>
   </si>
   <si>
     <t>January 20, 1989 – January 20, 1993</t>
@@ -477,43 +492,43 @@
     <t>Dan Quayle</t>
   </si>
   <si>
-    <t>Bill Clinton (b. 1946)</t>
+    <t xml:space="preserve">Bill Clinton (b. 1946) </t>
   </si>
   <si>
     <t>January 20, 1993 – January 20, 2001</t>
   </si>
   <si>
-    <t>1992, 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Gore,  </t>
-  </si>
-  <si>
-    <t>George W. Bush (b. 1946)</t>
+    <t>1992 1996</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George W. Bush (b. 1946) </t>
   </si>
   <si>
     <t>January 20, 2001 – January 20, 2009</t>
   </si>
   <si>
-    <t>2000, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick Cheney,  </t>
-  </si>
-  <si>
-    <t>Barack Obama (b. 1961)</t>
+    <t>2000 2004</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barack Obama (b. 1961) </t>
   </si>
   <si>
     <t>January 20, 2009 – January 20, 2017</t>
   </si>
   <si>
-    <t>2008, 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Biden,  </t>
-  </si>
-  <si>
-    <t>Donald Trump (b. 1946)</t>
+    <t>2008 2012</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Trump (b. 1946) </t>
   </si>
   <si>
     <t>January 20, 2017 – January 20, 2021</t>
@@ -522,7 +537,7 @@
     <t>Mike Pence</t>
   </si>
   <si>
-    <t>Joe Biden (b. 1942)</t>
+    <t xml:space="preserve">Joe Biden (b. 1942) </t>
   </si>
   <si>
     <t>January 20, 2021 – Incumbent</t>
@@ -552,7 +567,7 @@
     </font>
   </fonts>
   <!-- $Insert Fills$ -->
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,13 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED2939"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAA520"/>
+        <fgColor rgb="FF00FFC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED2939"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <!-- $Insert all Styles$ -->
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -649,6 +670,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" borderId="0" fillId="8" fontId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" borderId="0" fillId="9" fontId="0" xfId="0" applyFill="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,10 +1143,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1824</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>31</v>
@@ -1199,13 +1223,13 @@
         <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1213,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>34</v>
@@ -1225,7 +1249,7 @@
         <v>1844</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1233,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>42</v>
@@ -1245,7 +1269,7 @@
         <v>1848</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1253,17 +1277,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1340,10 +1366,10 @@
         <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1356,14 +1382,14 @@
       <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>65</v>
+      <c r="D19" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1371,19 +1397,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="2">
         <v>1876</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1391,19 +1417,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E21" s="2">
         <v>1880</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1411,17 +1437,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1429,19 +1457,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1449,19 +1477,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="2">
         <v>1888</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1469,19 +1497,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1489,19 +1517,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1904</v>
+        <v>96</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1509,19 +1537,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E27" s="2">
         <v>1908</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1529,19 +1557,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1549,19 +1577,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>65</v>
+        <v>107</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="2">
         <v>1920</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1569,19 +1597,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1924</v>
+        <v>110</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1589,19 +1617,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E31" s="2">
         <v>1928</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1609,19 +1637,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1629,19 +1657,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="2">
-        <v>1948</v>
+      <c r="E33" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1649,19 +1677,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1669,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>34</v>
@@ -1681,7 +1709,7 @@
         <v>1960</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1689,19 +1717,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2">
-        <v>1964</v>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1709,19 +1737,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>65</v>
+        <v>136</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1729,17 +1757,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1747,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>34</v>
@@ -1759,7 +1789,7 @@
         <v>1976</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1767,19 +1797,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>65</v>
+        <v>146</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1787,19 +1817,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>65</v>
+        <v>150</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E41" s="2">
         <v>1988</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1807,19 +1837,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1827,19 +1857,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>65</v>
+        <v>157</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1847,19 +1877,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1867,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>65</v>
+        <v>165</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25" customFormat="1" s="1">
@@ -1887,10 +1917,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>34</v>
@@ -1899,7 +1929,7 @@
         <v>2020</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
